--- a/Finflux Automation Excels/Client/4965-SUBMIT-MODAPP-APPROVE-UNDOAPPROVE-DISB-UNDODISB-DISBLessAmt.xlsx
+++ b/Finflux Automation Excels/Client/4965-SUBMIT-MODAPP-APPROVE-UNDOAPPROVE-DISB-UNDODISB-DISBLessAmt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="B2" s="16">
         <v>0</v>
@@ -1425,15 +1425,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="15">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="F2" s="15">
-        <v>12000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>2880</v>
+      <c r="A3" s="16">
+        <v>960</v>
       </c>
       <c r="B3" s="16">
         <v>0</v>
@@ -1444,19 +1444,19 @@
       <c r="D3" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
-        <v>2880</v>
-      </c>
-      <c r="F3" s="15">
-        <v>2880</v>
+      <c r="E3" s="16">
+        <v>960</v>
+      </c>
+      <c r="F3" s="16">
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B4" s="16">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C4" s="16">
         <v>0</v>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,18 +1566,18 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="15">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="L2" s="16">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -1598,13 +1598,13 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G3" s="18">
-        <v>11076.92</v>
+        <v>3692.31</v>
       </c>
       <c r="H3" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I3" s="16">
         <v>0</v>
@@ -1612,8 +1612,8 @@
       <c r="J3" s="16">
         <v>0</v>
       </c>
-      <c r="K3" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K3" s="16">
+        <v>381.54</v>
       </c>
       <c r="L3" s="16">
         <v>0</v>
@@ -1626,8 +1626,8 @@
         <v>0</v>
       </c>
       <c r="P3" s="16"/>
-      <c r="Q3" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q3" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1643,13 +1643,13 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G4" s="18">
-        <v>10153.84</v>
+        <v>3384.62</v>
       </c>
       <c r="H4" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I4" s="16">
         <v>0</v>
@@ -1657,8 +1657,8 @@
       <c r="J4" s="16">
         <v>0</v>
       </c>
-      <c r="K4" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K4" s="16">
+        <v>381.54</v>
       </c>
       <c r="L4" s="16">
         <v>0</v>
@@ -1671,8 +1671,8 @@
         <v>0</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q4" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1688,13 +1688,13 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G5" s="18">
-        <v>9230.76</v>
+        <v>3076.93</v>
       </c>
       <c r="H5" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I5" s="16">
         <v>0</v>
@@ -1702,8 +1702,8 @@
       <c r="J5" s="16">
         <v>0</v>
       </c>
-      <c r="K5" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K5" s="16">
+        <v>381.54</v>
       </c>
       <c r="L5" s="16">
         <v>0</v>
@@ -1716,8 +1716,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="16"/>
-      <c r="Q5" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q5" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1733,13 +1733,13 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G6" s="18">
-        <v>8307.68</v>
+        <v>2769.24</v>
       </c>
       <c r="H6" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I6" s="16">
         <v>0</v>
@@ -1747,8 +1747,8 @@
       <c r="J6" s="16">
         <v>0</v>
       </c>
-      <c r="K6" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K6" s="16">
+        <v>381.54</v>
       </c>
       <c r="L6" s="16">
         <v>0</v>
@@ -1761,8 +1761,8 @@
         <v>0</v>
       </c>
       <c r="P6" s="16"/>
-      <c r="Q6" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q6" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1778,13 +1778,13 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G7" s="18">
-        <v>7384.6</v>
+        <v>2461.5500000000002</v>
       </c>
       <c r="H7" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1792,8 +1792,8 @@
       <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="K7" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K7" s="16">
+        <v>381.54</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
@@ -1806,8 +1806,8 @@
         <v>0</v>
       </c>
       <c r="P7" s="16"/>
-      <c r="Q7" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q7" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1823,13 +1823,13 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G8" s="18">
-        <v>6461.52</v>
+        <v>2153.86</v>
       </c>
       <c r="H8" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -1837,8 +1837,8 @@
       <c r="J8" s="16">
         <v>0</v>
       </c>
-      <c r="K8" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K8" s="16">
+        <v>381.54</v>
       </c>
       <c r="L8" s="16">
         <v>0</v>
@@ -1851,8 +1851,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="16"/>
-      <c r="Q8" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q8" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1868,13 +1868,13 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G9" s="18">
-        <v>5538.44</v>
+        <v>1846.17</v>
       </c>
       <c r="H9" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1882,8 +1882,8 @@
       <c r="J9" s="16">
         <v>0</v>
       </c>
-      <c r="K9" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K9" s="16">
+        <v>381.54</v>
       </c>
       <c r="L9" s="16">
         <v>0</v>
@@ -1896,8 +1896,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="16"/>
-      <c r="Q9" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q9" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1913,13 +1913,13 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G10" s="18">
-        <v>4615.3599999999997</v>
+        <v>1538.48</v>
       </c>
       <c r="H10" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1927,8 +1927,8 @@
       <c r="J10" s="16">
         <v>0</v>
       </c>
-      <c r="K10" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K10" s="16">
+        <v>381.54</v>
       </c>
       <c r="L10" s="16">
         <v>0</v>
@@ -1941,8 +1941,8 @@
         <v>0</v>
       </c>
       <c r="P10" s="16"/>
-      <c r="Q10" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q10" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1958,13 +1958,13 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G11" s="18">
-        <v>3692.28</v>
+        <v>1230.79</v>
       </c>
       <c r="H11" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -1972,8 +1972,8 @@
       <c r="J11" s="16">
         <v>0</v>
       </c>
-      <c r="K11" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K11" s="16">
+        <v>381.54</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
@@ -1986,8 +1986,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="16"/>
-      <c r="Q11" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q11" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2003,13 +2003,13 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16">
-        <v>923.08</v>
-      </c>
-      <c r="G12" s="18">
-        <v>2769.2</v>
+        <v>307.69</v>
+      </c>
+      <c r="G12" s="16">
+        <v>923.1</v>
       </c>
       <c r="H12" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -2017,8 +2017,8 @@
       <c r="J12" s="16">
         <v>0</v>
       </c>
-      <c r="K12" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K12" s="16">
+        <v>381.54</v>
       </c>
       <c r="L12" s="16">
         <v>0</v>
@@ -2031,8 +2031,8 @@
         <v>0</v>
       </c>
       <c r="P12" s="16"/>
-      <c r="Q12" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q12" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2048,13 +2048,13 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16">
-        <v>923.08</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1846.12</v>
+        <v>307.69</v>
+      </c>
+      <c r="G13" s="16">
+        <v>615.41</v>
       </c>
       <c r="H13" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -2062,8 +2062,8 @@
       <c r="J13" s="16">
         <v>0</v>
       </c>
-      <c r="K13" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K13" s="16">
+        <v>381.54</v>
       </c>
       <c r="L13" s="16">
         <v>0</v>
@@ -2076,8 +2076,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="16"/>
-      <c r="Q13" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q13" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2093,13 +2093,13 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
-        <v>923.08</v>
+        <v>307.69</v>
       </c>
       <c r="G14" s="16">
-        <v>923.04</v>
+        <v>307.72000000000003</v>
       </c>
       <c r="H14" s="16">
-        <v>221.54</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -2107,8 +2107,8 @@
       <c r="J14" s="16">
         <v>0</v>
       </c>
-      <c r="K14" s="18">
-        <v>1144.6199999999999</v>
+      <c r="K14" s="16">
+        <v>381.54</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -2121,8 +2121,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="16"/>
-      <c r="Q14" s="18">
-        <v>1144.6199999999999</v>
+      <c r="Q14" s="16">
+        <v>381.54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2138,13 +2138,13 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
-        <v>923.04</v>
+        <v>307.72000000000003</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
       </c>
       <c r="H15" s="16">
-        <v>221.52</v>
+        <v>73.8</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -2152,8 +2152,8 @@
       <c r="J15" s="16">
         <v>0</v>
       </c>
-      <c r="K15" s="18">
-        <v>1144.56</v>
+      <c r="K15" s="16">
+        <v>381.52</v>
       </c>
       <c r="L15" s="16">
         <v>0</v>
@@ -2166,8 +2166,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="16"/>
-      <c r="Q15" s="18">
-        <v>1144.56</v>
+      <c r="Q15" s="16">
+        <v>381.52</v>
       </c>
     </row>
   </sheetData>
